--- a/similarities/split_global/harmonic_similarity_timestamps_155.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_155.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:01:06.040000', '0:01:08.540000'), ('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:00.421247', '0:00:03.083177')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000'), ('0:01:00.040000', '0:01:05.240000'), ('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=60.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G#:7/D#', 'C#/F', 'G#:7', 'C#'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:00:45.940000', '0:00:59.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:44.060000', '0:00:47.700000'), ('0:01:09', '0:01:14.900000')]</t>
+          <t>('0:00:22.860000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=45.94</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=44.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=22.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:55.680000', '0:02:57.820000'), ('0:00:22.040000', '0:00:28.660000')]</t>
+          <t>('0:01:06.800000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:45.400000', '0:00:48.120000'), ('0:01:38.020000', '0:01:50.760000')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=175.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=45.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:00:36.320000', '0:00:51.920000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:02:00.660000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=120.66</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:25.180000')]</t>
+          <t>('0:00:58.320000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:27.280000', '0:00:56.880000')]</t>
+          <t>('0:00:22.820000', '0:00:26.720000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.82</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:7']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:13.740000', '0:01:27.340000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:56.020000', '0:00:59.320000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>['B', 'Gb', 'B', 'Gb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:31.785035', '0:00:36.150690')]</t>
+          <t>('0:00:15.552131', '0:00:23.667505')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:27.260000', '0:01:29.580000')]</t>
+          <t>('0:00:29.160000', '0:00:31.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=31.785035']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=87.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.16</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_197</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000'), ('0:00:37.040000', '0:00:43.920000')]</t>
+          <t>('0:00:16.088141', '0:00:27.709728')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:00:37.740000', '0:00:40.640000')]</t>
+          <t>('0:00:12.971000', '0:00:23.861000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=37.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:35.700000', '0:00:38.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.080000', '0:01:09.840000')]</t>
+          <t>('0:00:36.740000', '0:00:42.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=35.7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=62.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=36.74</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F', 'F:7', 'Bb']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.170000', '0:00:32.220000')]</t>
+          <t>('0:01:14.180000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:24.540000')]</t>
+          <t>('0:00:03.460000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=74.18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B', 'E/5']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:26.707525', '0:00:38.619362')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:03.652000', '0:02:12.656000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=26.707525']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:25.687641', '0:00:32.084739')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-51#t=25.687641</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
